--- a/biology/Botanique/Ernst_Lemmermann/Ernst_Lemmermann.xlsx
+++ b/biology/Botanique/Ernst_Lemmermann/Ernst_Lemmermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Lemmermann (né le 27 mai 1867 à Brême où il est mort le 11 mai 1915) est un botaniste allemand, connu pour s'être spécialisé dans le domaine de la phycologie.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début de sa carrière, il enseigne au Seminarlehrer de Brême, en même temps qu'il travaille comme assistant, en botanique, au Stadtischen Museum für Natur-, Vôlker- und Handelskunde (Musée Métropolitain pour la Nature)[1]. Il devient parallèlement le professeur du biologiste Friedrich Hustedt (1886-1968)[2], qui nommera plus tard la diatomée Achnanthes lemmermannii en l'honneur de son ancien instructeur. Par ailleurs, l'algue bleu-vert Anabaena lemmermannii est aussi nommée en son honneur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de sa carrière, il enseigne au Seminarlehrer de Brême, en même temps qu'il travaille comme assistant, en botanique, au Stadtischen Museum für Natur-, Vôlker- und Handelskunde (Musée Métropolitain pour la Nature). Il devient parallèlement le professeur du biologiste Friedrich Hustedt (1886-1968), qui nommera plus tard la diatomée Achnanthes lemmermannii en l'honneur de son ancien instructeur. Par ailleurs, l'algue bleu-vert Anabaena lemmermannii est aussi nommée en son honneur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Voici une liste non exhaustive des travaux de Lemmermann qui ont été publiés[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voici une liste non exhaustive des travaux de Lemmermann qui ont été publiés :
 1898 : Algologische Beiträge (IV-V)
 1899 : Ergebnisse einer Reise nach dem Pacific (H. Schauinsland, 1896/97) : Plankton-algen
 1899 : Das Genus Ophiocytium Naegeli
